--- a/WebScraping/Upwork/Ahmad/active-jobs/Milestone22/new-justrite-output.xlsx
+++ b/WebScraping/Upwork/Ahmad/active-jobs/Milestone22/new-justrite-output.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\WebScraping\Upwork\Ahmad\active-jobs\Milestone22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD9AF06-62E2-433F-B9EA-54F60C987176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0089BC36-BD49-4E17-899B-465F7E790FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HP" sheetId="1" r:id="rId1"/>
+    <sheet name="Justrite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2154,10 +2154,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AH1" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="AJ66" sqref="AJ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
